--- a/src/main/resources/xlsx/cpc_template.xlsx
+++ b/src/main/resources/xlsx/cpc_template.xlsx
@@ -319,19 +319,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -339,9 +342,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -629,7 +629,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="22.9" customHeight="1"/>
@@ -652,126 +652,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="39.6" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
     </row>
     <row r="2" spans="1:14" ht="22.9" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
     </row>
     <row r="3" spans="1:14" s="3" customFormat="1" ht="22.9" customHeight="1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="13"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
       <c r="G3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="15" t="s">
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="17"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="14"/>
     </row>
     <row r="4" spans="1:14" s="3" customFormat="1" ht="22.9" customHeight="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="13" t="s">
+      <c r="E4" s="15"/>
+      <c r="F4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="13" t="s">
+      <c r="I4" s="15"/>
+      <c r="J4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="13" t="s">
+      <c r="M4" s="15"/>
+      <c r="N4" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="3" customFormat="1" ht="22.9" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="17"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="17"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="14"/>
       <c r="L5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="13"/>
+      <c r="N5" s="16"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
       <c r="A6" s="2">
@@ -808,10 +810,10 @@
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="7"/>
@@ -827,23 +829,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A1:N1"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C3:F3"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/main/resources/xlsx/cpc_template.xlsx
+++ b/src/main/resources/xlsx/cpc_template.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5A16D70C-9FC8-442C-B652-162406253294}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,10 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>北京师范大学内设机构干部配备情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无行政级别干部</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,19 +73,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxxx</t>
+    <t>school内设机构干部配备情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,31 +312,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -625,14 +618,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="22.9" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="22.9" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.875" style="9" customWidth="1"/>
@@ -651,169 +644,153 @@
     <col min="15" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="39.6" customHeight="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:14" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+    </row>
+    <row r="2" spans="1:14" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+    </row>
+    <row r="3" spans="1:14" s="3" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="17"/>
     </row>
-    <row r="2" spans="1:14" ht="22.9" customHeight="1">
-      <c r="A2" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
+    <row r="4" spans="1:14" s="3" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="14"/>
+      <c r="N4" s="13" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" ht="22.9" customHeight="1">
-      <c r="A3" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="14"/>
-    </row>
-    <row r="4" spans="1:14" s="3" customFormat="1" ht="22.9" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="M4" s="15"/>
-      <c r="N4" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="3" customFormat="1" ht="22.9" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
+    <row r="5" spans="1:14" s="3" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="14"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="17"/>
       <c r="H5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="14"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="17"/>
       <c r="L5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="16"/>
+      <c r="N5" s="13"/>
     </row>
-    <row r="6" spans="1:14" ht="30" customHeight="1">
+    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="6"/>
       <c r="K6" s="10"/>
       <c r="L6" s="2"/>
       <c r="M6" s="7"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="14"/>
+    <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="17"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="7"/>
@@ -829,6 +806,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C3:F3"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="K3:N3"/>
@@ -838,14 +823,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
